--- a/psio/projekt/models_results.xlsx
+++ b/psio/projekt/models_results.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>282.0999999999998</v>
+        <v>52.00000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>271.4792622892249</v>
+        <v>85.65068656375163</v>
       </c>
       <c r="F2" t="n">
-        <v>286.0000000000001</v>
+        <v>52.00000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>283.2499999999995</v>
       </c>
       <c r="E3" t="n">
-        <v>167.4254438405397</v>
+        <v>266.7199201874504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>286.0000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>59.99999999999999</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>37.04999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>93.61377352376248</v>
+        <v>31.27489328688133</v>
       </c>
       <c r="F4" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C5" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D5" t="n">
-        <v>282.9999999999999</v>
+        <v>281.9</v>
       </c>
       <c r="E5" t="n">
-        <v>265.2159748554453</v>
+        <v>255.4936318650635</v>
       </c>
       <c r="F5" t="n">
-        <v>282</v>
+        <v>286.0000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>77.14999999999995</v>
+        <v>44.25000000000004</v>
       </c>
       <c r="E6" t="n">
-        <v>94.75741315413808</v>
+        <v>51.76856620933266</v>
       </c>
       <c r="F6" t="n">
-        <v>77.99999999999999</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="C7" t="n">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>284.4999999999997</v>
+        <v>66.85000000000004</v>
       </c>
       <c r="E7" t="n">
-        <v>276.8171635793511</v>
+        <v>83.26104428236174</v>
       </c>
       <c r="F7" t="n">
-        <v>282.0000000000001</v>
+        <v>65.00000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="D8" t="n">
-        <v>30.49999999999999</v>
+        <v>335.9500000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.938693760456559</v>
+        <v>349.4463848453434</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>337.9999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C9" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D9" t="n">
-        <v>319.5499999999997</v>
+        <v>310.2999999999998</v>
       </c>
       <c r="E9" t="n">
-        <v>326.6210577066698</v>
+        <v>318.5674929168862</v>
       </c>
       <c r="F9" t="n">
-        <v>318</v>
+        <v>308.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>290.0000000000001</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>288.5999999999999</v>
+        <v>43.55</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5914438714206</v>
+        <v>68.26649566164133</v>
       </c>
       <c r="F10" t="n">
-        <v>289</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>320.0499999999997</v>
+        <v>18.24999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>353.7754884085236</v>
+        <v>-12.24856481817069</v>
       </c>
       <c r="F11" t="n">
-        <v>320</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="C12" t="n">
-        <v>34.99999999999999</v>
+        <v>280</v>
       </c>
       <c r="D12" t="n">
-        <v>36.39999999999997</v>
+        <v>284.1499999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>13.23935038002172</v>
+        <v>265.9988733288145</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
-        <v>289.0000000000001</v>
+        <v>81.59999999999991</v>
       </c>
       <c r="E13" t="n">
-        <v>275.0563606613446</v>
+        <v>95.0013025711457</v>
       </c>
       <c r="F13" t="n">
-        <v>288</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C14" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D14" t="n">
-        <v>317.2999999999995</v>
+        <v>335.2500000000003</v>
       </c>
       <c r="E14" t="n">
-        <v>275.8034399085729</v>
+        <v>366.6420995959988</v>
       </c>
       <c r="F14" t="n">
-        <v>308.9999999999999</v>
+        <v>333.9999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="D15" t="n">
-        <v>43.70000000000003</v>
+        <v>283.55</v>
       </c>
       <c r="E15" t="n">
-        <v>47.57719408966938</v>
+        <v>263.091144499024</v>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
-        <v>333.6000000000004</v>
+        <v>85.34999999999987</v>
       </c>
       <c r="E16" t="n">
-        <v>367.9514991547447</v>
+        <v>102.7303273655588</v>
       </c>
       <c r="F16" t="n">
-        <v>330</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="C17" t="n">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9999999999994</v>
+        <v>80.85000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>332.9534545340237</v>
+        <v>89.58555672303963</v>
       </c>
       <c r="F17" t="n">
-        <v>318</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>309.1999999999997</v>
+        <v>20.19999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>269.0146488555584</v>
+        <v>-0.8442375803743385</v>
       </c>
       <c r="F18" t="n">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="C19" t="n">
-        <v>45.00000000000001</v>
+        <v>350</v>
       </c>
       <c r="D19" t="n">
-        <v>43.05000000000002</v>
+        <v>349.8499999999995</v>
       </c>
       <c r="E19" t="n">
-        <v>44.81087371041657</v>
+        <v>258.7008624290651</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C20" t="n">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D20" t="n">
-        <v>340.2499999999995</v>
+        <v>344.35</v>
       </c>
       <c r="E20" t="n">
-        <v>352.3697060773868</v>
+        <v>156.1590327206762</v>
       </c>
       <c r="F20" t="n">
-        <v>340.0000000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="C21" t="n">
-        <v>340</v>
+        <v>294.9999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>338.1499999999998</v>
+        <v>290.5</v>
       </c>
       <c r="E21" t="n">
-        <v>371.179199909052</v>
+        <v>257.4159895324394</v>
       </c>
       <c r="F21" t="n">
-        <v>335</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>351.45</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>219.9861269885785</v>
+        <v>109.2589595344502</v>
       </c>
       <c r="F22" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C23" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D23" t="n">
-        <v>281.6499999999997</v>
+        <v>299.1999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>272.9832130039601</v>
+        <v>265.2956261524162</v>
       </c>
       <c r="F23" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>38.59999999999997</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>35.14499430376298</v>
+        <v>116.3178101163808</v>
       </c>
       <c r="F24" t="n">
-        <v>43.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D25" t="n">
-        <v>12.59999999999999</v>
+        <v>61.15000000000003</v>
       </c>
       <c r="E25" t="n">
-        <v>53.57315307770372</v>
+        <v>86.13798077879379</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>280.3499999999999</v>
+        <v>77.54999999999997</v>
       </c>
       <c r="E26" t="n">
-        <v>266.5973058438181</v>
+        <v>87.41251102750039</v>
       </c>
       <c r="F26" t="n">
-        <v>282.0000000000001</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>59.99999999999999</v>
+        <v>270</v>
       </c>
       <c r="C27" t="n">
-        <v>59.99999999999999</v>
+        <v>270</v>
       </c>
       <c r="D27" t="n">
-        <v>62.69999999999997</v>
+        <v>272.7500000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>91.02490695847391</v>
+        <v>262.7842676298509</v>
       </c>
       <c r="F27" t="n">
-        <v>66</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>59.99999999999999</v>
+        <v>305</v>
       </c>
       <c r="C28" t="n">
-        <v>59.99999999999999</v>
+        <v>305</v>
       </c>
       <c r="D28" t="n">
-        <v>59.64999999999996</v>
+        <v>305.7500000000003</v>
       </c>
       <c r="E28" t="n">
-        <v>63.1510348557894</v>
+        <v>310.9300474481125</v>
       </c>
       <c r="F28" t="n">
-        <v>58</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
         <v>75</v>
       </c>
       <c r="D29" t="n">
-        <v>74.80000000000003</v>
+        <v>73.60000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>91.89935404586473</v>
+        <v>83.13560897907824</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>81.34999999999991</v>
+        <v>10.29999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>92.9885517085881</v>
+        <v>14.31843293956957</v>
       </c>
       <c r="F30" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C31" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D31" t="n">
-        <v>280.1999999999998</v>
+        <v>273.3999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>272.4596138370595</v>
+        <v>269.22169120385</v>
       </c>
       <c r="F31" t="n">
-        <v>284.0000000000001</v>
+        <v>280.9999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="D32" t="n">
-        <v>20.09999999999999</v>
+        <v>349.8499999999995</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.731182288218663</v>
+        <v>257.6037090149769</v>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>332.3500000000004</v>
+        <v>30.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>368.7065205483454</v>
+        <v>1.498141741212708</v>
       </c>
       <c r="F33" t="n">
-        <v>332.0000000000001</v>
+        <v>32.99999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="D34" t="n">
-        <v>20.04999999999998</v>
+        <v>344.0499999999997</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003479088208100944</v>
+        <v>309.831062772007</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>68.3</v>
+        <v>9.999999999999989</v>
       </c>
       <c r="E35" t="n">
-        <v>84.92937879119884</v>
+        <v>26.24183838788977</v>
       </c>
       <c r="F35" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C36" t="n">
-        <v>349.9999999999999</v>
+        <v>275</v>
       </c>
       <c r="D36" t="n">
-        <v>350.6999999999996</v>
+        <v>272.7</v>
       </c>
       <c r="E36" t="n">
-        <v>296.8102836159147</v>
+        <v>275.8811415122641</v>
       </c>
       <c r="F36" t="n">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="D37" t="n">
-        <v>79.09999999999995</v>
+        <v>284.1499999999998</v>
       </c>
       <c r="E37" t="n">
-        <v>93.28693199719477</v>
+        <v>266.0025510831325</v>
       </c>
       <c r="F37" t="n">
-        <v>71</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>59.99999999999999</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>63.29999999999999</v>
+        <v>20.24999999999998</v>
       </c>
       <c r="E38" t="n">
-        <v>90.38828737446171</v>
+        <v>-14.96508229627101</v>
       </c>
       <c r="F38" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="C39" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
-        <v>272.9000000000001</v>
+        <v>82.14999999999991</v>
       </c>
       <c r="E39" t="n">
-        <v>256.3941293286497</v>
+        <v>92.4994355187517</v>
       </c>
       <c r="F39" t="n">
-        <v>273</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="D40" t="n">
-        <v>330.8000000000006</v>
+        <v>74.79999999999998</v>
       </c>
       <c r="E40" t="n">
-        <v>370.3163788842582</v>
+        <v>91.06569638536291</v>
       </c>
       <c r="F40" t="n">
-        <v>335</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="D41" t="n">
-        <v>20.14999999999998</v>
+        <v>340.5499999999994</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.003463799685090585</v>
+        <v>320.6458987899195</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>349.9999999999999</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>349.9499999999995</v>
+        <v>43.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>309.1019684813525</v>
+        <v>69.85612120116068</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0000000000001</v>
+        <v>43.99999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="C43" t="n">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="D43" t="n">
-        <v>319.5499999999997</v>
+        <v>284.1499999999998</v>
       </c>
       <c r="E43" t="n">
-        <v>330.1626473408288</v>
+        <v>266.0025510831325</v>
       </c>
       <c r="F43" t="n">
-        <v>318.9999999999999</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="C44" t="n">
-        <v>59.99999999999999</v>
+        <v>320</v>
       </c>
       <c r="D44" t="n">
-        <v>58.04999999999995</v>
+        <v>317.1999999999996</v>
       </c>
       <c r="E44" t="n">
-        <v>72.30190358778792</v>
+        <v>330.3808832069848</v>
       </c>
       <c r="F44" t="n">
-        <v>55</v>
+        <v>316.9999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>25.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.276820960320331</v>
+        <v>109.2589595344502</v>
       </c>
       <c r="F45" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="C46" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="D46" t="n">
-        <v>339.5999999999996</v>
+        <v>81.85000000000005</v>
       </c>
       <c r="E46" t="n">
-        <v>362.9041041610662</v>
+        <v>89.49617925318731</v>
       </c>
       <c r="F46" t="n">
-        <v>339</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="D47" t="n">
-        <v>17.65</v>
+        <v>353.2499999999998</v>
       </c>
       <c r="E47" t="n">
-        <v>11.76238407360518</v>
+        <v>196.1539568163521</v>
       </c>
       <c r="F47" t="n">
-        <v>18</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48">
@@ -1388,16 +1388,16 @@
         <v>55</v>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>54.30000000000003</v>
+        <v>55.54999999999992</v>
       </c>
       <c r="E48" t="n">
-        <v>62.27090795705531</v>
+        <v>73.99471702881512</v>
       </c>
       <c r="F48" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>319.3499999999996</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>340.5189659986216</v>
+        <v>-5.150978772619594</v>
       </c>
       <c r="F49" t="n">
-        <v>322.9999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C50" t="n">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D50" t="n">
-        <v>328.9000000000005</v>
+        <v>345.3999999999996</v>
       </c>
       <c r="E50" t="n">
-        <v>365.5450826652502</v>
+        <v>271.2534041214755</v>
       </c>
       <c r="F50" t="n">
-        <v>330</v>
+        <v>345.9999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="C51" t="n">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="D51" t="n">
-        <v>325.5000000000003</v>
+        <v>81.59999999999991</v>
       </c>
       <c r="E51" t="n">
-        <v>346.8561276945533</v>
+        <v>95.0013025711457</v>
       </c>
       <c r="F51" t="n">
-        <v>326</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>290.0000000000001</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>288.6999999999999</v>
+        <v>37.04999999999998</v>
       </c>
       <c r="E52" t="n">
-        <v>266.5097260179263</v>
+        <v>31.27489328688133</v>
       </c>
       <c r="F52" t="n">
-        <v>289</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>312.6999999999995</v>
       </c>
       <c r="E53" t="n">
-        <v>183.4693752667334</v>
+        <v>295.6537317231618</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>312.9999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D54" t="n">
-        <v>20.34999999999998</v>
+        <v>76.79999999999995</v>
       </c>
       <c r="E54" t="n">
-        <v>-5.628533778137797</v>
+        <v>79.40398065015539</v>
       </c>
       <c r="F54" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>34.75000000000001</v>
+        <v>15.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.906841115025252</v>
+        <v>-4.661071034445544</v>
       </c>
       <c r="F55" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C56" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D56" t="n">
-        <v>87.40000000000002</v>
+        <v>77.79999999999998</v>
       </c>
       <c r="E56" t="n">
-        <v>91.4353161566019</v>
+        <v>79.70766774374748</v>
       </c>
       <c r="F56" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="C57" t="n">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="D57" t="n">
-        <v>353.6499999999999</v>
+        <v>301.4500000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>279.3984217580707</v>
+        <v>275.7540012678928</v>
       </c>
       <c r="F57" t="n">
-        <v>352</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58">
@@ -1588,16 +1588,16 @@
         <v>325</v>
       </c>
       <c r="C58" t="n">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D58" t="n">
-        <v>326.7000000000004</v>
+        <v>325.9000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>360.3208962071899</v>
+        <v>362.7413554493797</v>
       </c>
       <c r="F58" t="n">
-        <v>322</v>
+        <v>328.0000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>315</v>
       </c>
       <c r="D59" t="n">
-        <v>62.30000000000005</v>
+        <v>313.0499999999995</v>
       </c>
       <c r="E59" t="n">
-        <v>72.73629959364233</v>
+        <v>317.4878141424305</v>
       </c>
       <c r="F59" t="n">
-        <v>69</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="D60" t="n">
-        <v>76.94999999999999</v>
+        <v>336.3500000000002</v>
       </c>
       <c r="E60" t="n">
-        <v>88.71131862703504</v>
+        <v>341.9005602197164</v>
       </c>
       <c r="F60" t="n">
-        <v>75</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>294.9999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>291.7</v>
       </c>
       <c r="E61" t="n">
-        <v>160.7902348194562</v>
+        <v>259.3226806756343</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>290.9999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C62" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>79.74999999999999</v>
+        <v>24.15000000000002</v>
       </c>
       <c r="E62" t="n">
-        <v>91.34757787118423</v>
+        <v>-14.74829061194485</v>
       </c>
       <c r="F62" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>15.04999999999999</v>
+        <v>39.04999999999996</v>
       </c>
       <c r="E63" t="n">
-        <v>28.50771951324203</v>
+        <v>15.23166966684759</v>
       </c>
       <c r="F63" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="C64" t="n">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="D64" t="n">
-        <v>55.99999999999994</v>
+        <v>335.2500000000003</v>
       </c>
       <c r="E64" t="n">
-        <v>86.19759714105277</v>
+        <v>366.6420995959988</v>
       </c>
       <c r="F64" t="n">
-        <v>61.99999999999999</v>
+        <v>333.9999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="C65" t="n">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="D65" t="n">
-        <v>63.75000000000002</v>
+        <v>315.6999999999992</v>
       </c>
       <c r="E65" t="n">
-        <v>80.51976574444852</v>
+        <v>344.499312864672</v>
       </c>
       <c r="F65" t="n">
-        <v>68</v>
+        <v>319.0000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>353.4499999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>167.4254438405397</v>
+        <v>211.6240449152008</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="C67" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>330.8000000000006</v>
+        <v>20.24999999999998</v>
       </c>
       <c r="E67" t="n">
-        <v>370.3163788842582</v>
+        <v>-15.7674858376438</v>
       </c>
       <c r="F67" t="n">
-        <v>335</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D68" t="n">
-        <v>25.00000000000004</v>
+        <v>81.59999999999991</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.30461967139858</v>
+        <v>95.0013025711457</v>
       </c>
       <c r="F68" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="C69" t="n">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>308.8000000000001</v>
+        <v>36.59999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>274.8599988732942</v>
+        <v>50.77804779641257</v>
       </c>
       <c r="F69" t="n">
-        <v>306.9999999999999</v>
+        <v>42.99999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -1828,16 +1828,16 @@
         <v>275</v>
       </c>
       <c r="C70" t="n">
-        <v>290.0000000000001</v>
+        <v>280</v>
       </c>
       <c r="D70" t="n">
-        <v>287.9499999999999</v>
+        <v>280.25</v>
       </c>
       <c r="E70" t="n">
-        <v>269.6341751875124</v>
+        <v>261.1311972579173</v>
       </c>
       <c r="F70" t="n">
-        <v>288.9999999999999</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="C71" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D71" t="n">
-        <v>291.6</v>
+        <v>352.2499999999997</v>
       </c>
       <c r="E71" t="n">
-        <v>273.6916041249007</v>
+        <v>217.9155803155618</v>
       </c>
       <c r="F71" t="n">
-        <v>291</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="C72" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="D72" t="n">
-        <v>307.4499999999999</v>
+        <v>274.25</v>
       </c>
       <c r="E72" t="n">
-        <v>286.3675226243926</v>
+        <v>262.4454600009236</v>
       </c>
       <c r="F72" t="n">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="C73" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="D73" t="n">
-        <v>281.6499999999997</v>
+        <v>80.4499999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>272.8063461608795</v>
+        <v>79.67136256089503</v>
       </c>
       <c r="F73" t="n">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
